--- a/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D479F-F9A3-4C74-AD8A-83CEB4F2985F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3516BA-8E4F-4D73-BF06-B99912B287CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computation" sheetId="1" r:id="rId1"/>
@@ -397,9 +397,6 @@
     <t>7475522c-e019-4641-93fe-7d5cb1731080</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>DPBO:1000096</t>
   </si>
   <si>
@@ -509,6 +506,9 @@
   </si>
   <si>
     <t>DPBO:1000178</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1213,18 +1213,18 @@
         <v>19</v>
       </c>
       <c r="Z1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
       </c>
       <c r="K2" t="s">
         <v>66</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
       </c>
       <c r="N3" t="s">
         <v>68</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
       </c>
       <c r="N4" t="s">
         <v>78</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
       </c>
       <c r="N5" t="s">
         <v>69</v>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34C41AE-DF76-4303-A53C-3D579ECAFFB9}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,10 +1468,10 @@
         <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>46</v>
@@ -1491,10 +1491,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1507,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1529,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,24 +1700,24 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>64</v>
@@ -1735,14 +1735,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>60</v>
@@ -1771,14 +1771,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>48</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>60</v>
@@ -1807,14 +1807,14 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="E6" s="10" t="s">
         <v>48</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>60</v>
@@ -1843,14 +1843,14 @@
         <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="E7" s="10" t="s">
         <v>48</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>60</v>
@@ -1879,14 +1879,14 @@
         <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>60</v>
@@ -1915,14 +1915,14 @@
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E9" s="10" t="s">
         <v>48</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>60</v>
@@ -1951,14 +1951,14 @@
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>65</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>48</v>

--- a/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3516BA-8E4F-4D73-BF06-B99912B287CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3772F68-FB3C-4FBA-BC02-A6E5622AFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computation" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1985EAB3-1E30-4079-8CEE-152C9324667A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=7475522c-e019-4641-93fe-7d5cb1731080</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{FE4805AA-AE6D-4DAA-B66F-F9C4779B2A96}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{9B51D680-6040-4120-BB7F-F70549F7E9C0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{C9A44CE5-5B28-4559-AA06-3F5E8265FFBA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{C60E0575-B30B-4C19-9A78-E825344ECFA4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{74153F62-8742-45E6-93F0-BBAF6EA52683}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{5B3F9D7C-63C6-4E48-ACFC-9F0FEAF9DCD0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{958ED07C-D799-4A4A-87E5-CD85AD4E8BC9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{9597FA21-8724-4A9E-99A5-8A04E586293D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
   <si>
     <t>Source Name</t>
   </si>
@@ -510,12 +510,18 @@
   <si>
     <t>1.0.0</t>
   </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +540,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -665,11 +679,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -705,10 +720,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{4500580F-8250-44DE-8BB2-4BA9BB0A7E04}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1106,37 +1125,37 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>121</v>
       </c>
@@ -1273,7 +1292,7 @@
       </c>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>121</v>
       </c>
@@ -1303,7 +1322,7 @@
       </c>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -1333,7 +1352,7 @@
       </c>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -1367,16 +1386,16 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1416,7 +1435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1424,13 +1443,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1465,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1454,13 +1473,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1486,7 +1505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1499,10 +1518,11 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1515,16 +1535,17 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1540,13 +1561,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1554,25 +1575,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1580,33 +1601,36 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{294A5415-2388-4C25-98AB-34ABEA2B6780}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1618,23 +1642,23 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -1672,7 +1696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1722,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>100</v>
       </c>
@@ -1730,7 +1754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1790,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1826,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1838,7 +1862,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1874,7 +1898,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1910,7 +1934,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1946,7 +1970,7 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -1980,7 +2004,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>96</v>
       </c>

--- a/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3772F68-FB3C-4FBA-BC02-A6E5622AFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9D6CB8-FADF-426B-82D6-BCC348AA15D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computation" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="4" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
   <si>
     <t>Source Name</t>
   </si>
@@ -1383,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34C41AE-DF76-4303-A53C-3D579ECAFFB9}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1395,7 @@
     <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1443,13 +1443,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1473,79 +1473,70 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1618,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" xr:uid="{294A5415-2388-4C25-98AB-34ABEA2B6780}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{294A5415-2388-4C25-98AB-34ABEA2B6780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>

--- a/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Computation_GEO_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9D6CB8-FADF-426B-82D6-BCC348AA15D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B21DC-8D48-44FE-9EBC-73841ADF4E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>Source Name</t>
   </si>
@@ -496,18 +496,12 @@
     <t>GEO - Minimal information computational analysis</t>
   </si>
   <si>
-    <t>MINSEQ</t>
-  </si>
-  <si>
     <t>data processing protocol</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/DPBO_1000178</t>
   </si>
   <si>
-    <t>DPBO:1000178</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -515,6 +509,12 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>data processing</t>
+  </si>
+  <si>
+    <t>NCIT:C47925</t>
   </si>
 </sst>
 </file>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
         <v>66</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
         <v>68</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N4" t="s">
         <v>78</v>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N5" t="s">
         <v>69</v>
@@ -1383,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34C41AE-DF76-4303-A53C-3D579ECAFFB9}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1395,7 @@
     <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1411,15 +1411,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1443,13 +1443,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1473,70 +1473,63 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1618,7 +1611,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{294A5415-2388-4C25-98AB-34ABEA2B6780}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{294A5415-2388-4C25-98AB-34ABEA2B6780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
